--- a/data/MyStore.xlsx
+++ b/data/MyStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2E0594-2FF3-41DE-93D3-D98D094A3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A8661-F2D7-4BFD-A92B-F98B1CA60E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="834" activeTab="4" xr2:uid="{037DDBFC-6AC5-40B8-99E8-DDBD50DB4C1C}"/>
+    <workbookView xWindow="1920" yWindow="3075" windowWidth="17670" windowHeight="9210" tabRatio="834" activeTab="1" xr2:uid="{037DDBFC-6AC5-40B8-99E8-DDBD50DB4C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
   <si>
     <t>Test case</t>
   </si>
@@ -479,25 +479,28 @@
     <t>Click "Proceed to checkout" button in the pop-up window.</t>
   </si>
   <si>
-    <t>Click "Add to cart" button on the ….</t>
-  </si>
-  <si>
-    <t>Your shopping cart contains: 1 Product</t>
-  </si>
-  <si>
     <t>Click the green button "Proceed to checkout" in the popup window.</t>
   </si>
   <si>
-    <t>Increase the item quantity to 3 by clicking on the "+" sign twice.</t>
-  </si>
-  <si>
-    <t>Your shopping cart contains: 3 Products</t>
-  </si>
-  <si>
     <t>Click on the trash bin icon at the end of the product row.</t>
   </si>
   <si>
-    <t>Your shopping cart contains: 0 Product</t>
+    <t>Click the blue "Add to cart" button on the "Faded T-shirt" picture.</t>
+  </si>
+  <si>
+    <t>Click  the blue "Add to cart" button on the "Faded T-shirt" picture.</t>
+  </si>
+  <si>
+    <t>Increase the item quantity to 3 by clicking  two times on the "+" sign.</t>
+  </si>
+  <si>
+    <t>1 Product</t>
+  </si>
+  <si>
+    <t>3 Products</t>
+  </si>
+  <si>
+    <t>0 Product</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -839,6 +841,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1156,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF47-525E-4419-8E73-314D602755C0}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1322,7 @@
       <c r="C22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
@@ -1370,7 +1373,7 @@
       <c r="B32" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1378,7 +1381,7 @@
       <c r="B33" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="57" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1386,7 +1389,7 @@
       <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1400,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36FF0A1-8856-4960-9F3C-1C9AF63BE085}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1443,22 +1446,22 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
-        <v>123</v>
+      <c r="B9" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="5"/>
@@ -1469,14 +1472,14 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,37 +1491,37 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
-        <v>125</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -1535,42 +1538,42 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="62" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
         <v>123</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="64" t="s">
-        <v>125</v>
       </c>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48F2AF2-35E6-4B1E-A756-3DBA001DEC2B}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2151,108 +2154,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>12345</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2280,103 +2283,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>12345</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2405,158 +2408,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>12345</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>12345</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/MyStore.xlsx
+++ b/data/MyStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\SeleniumProjekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A8661-F2D7-4BFD-A92B-F98B1CA60E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC8EB3-69AE-4370-A03E-48582EB578EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3075" windowWidth="17670" windowHeight="9210" tabRatio="834" activeTab="1" xr2:uid="{037DDBFC-6AC5-40B8-99E8-DDBD50DB4C1C}"/>
+    <workbookView xWindow="135" yWindow="3495" windowWidth="17670" windowHeight="9210" tabRatio="834" activeTab="1" xr2:uid="{037DDBFC-6AC5-40B8-99E8-DDBD50DB4C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>Test case</t>
   </si>
@@ -497,10 +497,7 @@
     <t>1 Product</t>
   </si>
   <si>
-    <t>3 Products</t>
-  </si>
-  <si>
-    <t>0 Product</t>
+    <t>Your shopping cart is empty.</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36FF0A1-8856-4960-9F3C-1C9AF63BE085}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1514,7 @@
         <v>127</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1570,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
